--- a/TunicateData_MasterCopy.xlsx
+++ b/TunicateData_MasterCopy.xlsx
@@ -5,17 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/laureng6_student_ubc_ca/Documents/Year 5/Animal Structure and Function/tunicate-heat-immersion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laurengill/Github/tunicate-heat-immersion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="79" documentId="8_{C07D1029-4CA8-0D46-8B15-793FAC17D312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFB3D60E-728D-704E-8A0E-135238300377}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37049E31-174B-B649-83DE-378DED14DC18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="16600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="14" r:id="rId1"/>
-    <sheet name="Metadata" sheetId="15" r:id="rId2"/>
-    <sheet name="Study Description" sheetId="16" r:id="rId3"/>
+    <sheet name="Metadata" sheetId="16" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="131">
   <si>
     <t>photo_number</t>
   </si>
@@ -383,7 +382,43 @@
     <t>Location</t>
   </si>
   <si>
-    <t>Scott's Bay, Bamfield, BC</t>
+    <t>Gill, Lauren (laurengill27@gmail.com); Arthur, Payton (payton.arthur1@gmail.com); de Haas, Hazel (hazeldehaas@telus.net)</t>
+  </si>
+  <si>
+    <t>Bamfield Marine Sciences Centre (51° 4' 47.8128'' N, 114°7’31.9224” W), Bamfield, BC </t>
+  </si>
+  <si>
+    <t>Methods Used to Collect Data</t>
+  </si>
+  <si>
+    <t>Experimental units</t>
+  </si>
+  <si>
+    <t>Temperature of water treatments (12, 50, 70 or 90℃), the length of exposure in the water treatments (60s or 120s), type of water used in the water treatments (freshwater or seawater)</t>
+  </si>
+  <si>
+    <t>Unit of measure for each variable</t>
+  </si>
+  <si>
+    <t>Temperature: ℃elsius, Length of exposure: seconds, Type of water used: no units</t>
+  </si>
+  <si>
+    <t>Abbreviations used in the data file</t>
+  </si>
+  <si>
+    <t>hr = hour, wks = weeks, id = identification</t>
+  </si>
+  <si>
+    <t>2021-10-22, 0900-2000h</t>
+  </si>
+  <si>
+    <t>2021-10-23, 0900-1700h</t>
+  </si>
+  <si>
+    <t>2021-10-24, 0900-1800h</t>
+  </si>
+  <si>
+    <t>2021-10-25, 0900-1800h</t>
   </si>
   <si>
     <r>
@@ -396,15 +431,39 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <scheme val="minor"/>
       </rPr>
       <t>Didemnum vexillum</t>
     </r>
   </si>
   <si>
-    <t>Gill, Lauren; Arthur, Payton; de Haas, Hazel</t>
+    <r>
+      <t xml:space="preserve"> Chunks of </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">D. vexillum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were treated in 12, 50, 70 or 90℃ seawater or freshwater for 30s or 60s. Various measures of health and mortality were measured before and after heat treatment.</t>
+    </r>
   </si>
   <si>
-    <t>Oct 22 - Nov 15, 2021</t>
+    <t>Description of data in columns:</t>
   </si>
 </sst>
 </file>
@@ -484,6 +543,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,7 +566,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -525,7 +585,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,7 +802,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DA9F6D8-BDD5-434C-8BA1-708A75D4AA26}">
   <dimension ref="A1:AN1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
+    <sheetView zoomScale="88" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -31734,559 +31793,982 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{501923B6-F0B4-8E42-A7BA-2E2813086544}">
-  <dimension ref="A1:F39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA8E35A-3B19-3D42-8FD2-7320041BC954}">
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="91.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="4" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D20" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="4" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D21" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="4" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="4" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="4" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="4" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D26" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="4" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D28" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="4" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="4" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A38" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A40" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A42" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A43" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A44" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A46" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A47" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A49" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A50" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A51" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A53" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B53" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C53" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="D53" s="4"/>
+      <c r="E53" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="4" t="s">
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A54" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B54" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="D54" s="4"/>
+      <c r="E54" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="4" t="s">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A55" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B55" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C55" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="D55" s="4"/>
+      <c r="E55" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA8E35A-3B19-3D42-8FD2-7320041BC954}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>115</v>
-      </c>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
